--- a/Test Data/TC_51852_Verify_Impact_of_2nd_PSU_on_Battery_Loading.xlsx
+++ b/Test Data/TC_51852_Verify_Impact_of_2nd_PSU_on_Battery_Loading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhasip\Desktop\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Color Codes</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>Third party supply of 24V</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,57 +367,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -414,11 +395,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,46 +711,46 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -755,31 +758,31 @@
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="18">
         <v>0.25</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="18">
         <v>0.33600000000000002</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="18">
         <v>0.23400000000000001</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="16">
         <f>B3+0.052</f>
         <v>0.30199999999999999</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="16">
         <f>C3+0.052</f>
         <v>0.38800000000000001</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="16">
         <f>D3+0.052</f>
         <v>0.28600000000000003</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="16">
         <f>E3+0.052</f>
         <v>0.308</v>
       </c>
@@ -788,31 +791,31 @@
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="18">
         <v>0.25</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="18">
         <v>0.48799999999999999</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="18">
         <v>0.23400000000000001</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="16">
         <f>B4+0.055</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="16">
         <f>C4+0.055</f>
         <v>0.54300000000000004</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="16">
         <f>D4+0.055</f>
         <v>0.28900000000000003</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="16">
         <f>E4+0.055</f>
         <v>0.311</v>
       </c>
@@ -821,31 +824,31 @@
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="18">
         <v>0.36599999999999999</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="18">
         <v>0.48799999999999999</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="18">
         <v>0.23400000000000001</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="16">
         <f t="shared" ref="F5:I6" si="0">B5</f>
         <v>0.36599999999999999</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>0.48799999999999999</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>0.23400000000000001</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="16">
         <f t="shared" si="0"/>
         <v>0.25600000000000001</v>
       </c>
@@ -854,64 +857,64 @@
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="18">
         <v>0.36599999999999999</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="18">
         <v>0.48799999999999999</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="18">
         <v>0.23400000000000001</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>0.36599999999999999</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="16">
         <f t="shared" si="0"/>
         <v>0.48799999999999999</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>0.23400000000000001</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="16">
         <f t="shared" si="0"/>
         <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="18">
         <v>0.36599999999999999</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="18">
         <v>0.48799999999999999</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="18">
         <v>0.23400000000000001</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="16">
         <f>B7+0.029</f>
         <v>0.39500000000000002</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="16">
         <f>C7+0.208</f>
         <v>0.69599999999999995</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="16">
         <f>D7+0.208</f>
         <v>0.442</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="16">
         <f>E7+0.208</f>
         <v>0.46399999999999997</v>
       </c>
@@ -931,19 +934,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
@@ -960,15 +963,19 @@
     <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -977,42 +984,40 @@
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1023,20 +1028,20 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="26"/>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
       <c r="V6" s="25" t="s">
         <v>31</v>
       </c>
       <c r="W6" s="26"/>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="13"/>
+      <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1087,7 +1092,7 @@
       <c r="P7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="R7" s="15" t="s">
         <v>36</v>
       </c>
       <c r="S7" s="7" t="s">
@@ -1125,7 +1130,7 @@
       <c r="D8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1187,16 +1192,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="V6:W6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Test Data/TC_51852_Verify_Impact_of_2nd_PSU_on_Battery_Loading.xlsx
+++ b/Test Data/TC_51852_Verify_Impact_of_2nd_PSU_on_Battery_Loading.xlsx
@@ -171,9 +171,6 @@
     <t>PSU830</t>
   </si>
   <si>
-    <t>Third party supply of 24V</t>
-  </si>
-  <si>
     <t>AlarmLoadingDetail</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>Second PSU on Panel 1 (PSU830)</t>
   </si>
 </sst>
 </file>
@@ -395,6 +395,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,21 +420,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -935,7 +935,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,17 +964,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
       <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -984,15 +984,15 @@
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="27"/>
       <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -1022,26 +1022,26 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="M6" s="23" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="M6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="V6" s="25" t="s">
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="V6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="23" t="s">
+      <c r="W6" s="31"/>
+      <c r="X6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="23"/>
+      <c r="Y6" s="28"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1146,10 +1146,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="9">
-        <v>0.25</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="K8" s="9">
-        <v>0.33600000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>47</v>
@@ -1161,10 +1161,10 @@
         <v>10</v>
       </c>
       <c r="O8" s="9">
-        <v>0.25</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="P8" s="9">
-        <v>0.33600000000000002</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>39</v>
@@ -1176,19 +1176,19 @@
         <v>26</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V8" s="9">
-        <v>0.30199999999999999</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="W8" s="9">
-        <v>0.38800000000000001</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="X8" s="9">
-        <v>0.30199999999999999</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="Y8" s="9">
-        <v>0.38800000000000001</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_51852_Verify_Impact_of_2nd_PSU_on_Battery_Loading.xlsx
+++ b/Test Data/TC_51852_Verify_Impact_of_2nd_PSU_on_Battery_Loading.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BFE507-04DC-4B88-B057-99B3952878B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
     <sheet name="Add Panels" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Color Codes</t>
   </si>
@@ -184,12 +193,24 @@
   </si>
   <si>
     <t>Second PSU on Panel 1 (PSU830)</t>
+  </si>
+  <si>
+    <t>2.500</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>RS800</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -701,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -931,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,11 +1160,11 @@
       <c r="G8" s="2">
         <v>16</v>
       </c>
-      <c r="H8" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="I8" s="10">
-        <v>5</v>
+      <c r="H8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="J8" s="9">
         <v>0.29899999999999999</v>
@@ -1154,11 +1175,11 @@
       <c r="L8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="9">
-        <v>5</v>
-      </c>
-      <c r="N8" s="10">
-        <v>10</v>
+      <c r="M8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="O8" s="9">
         <v>0.40400000000000003</v>
@@ -1167,7 +1188,7 @@
         <v>0.71599999999999997</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>25</v>
@@ -1179,16 +1200,16 @@
         <v>52</v>
       </c>
       <c r="V8" s="9">
-        <v>0.45600000000000002</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="W8" s="9">
-        <v>0.76800000000000002</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="X8" s="9">
-        <v>0.40400000000000003</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="Y8" s="9">
-        <v>0.71599999999999997</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
   </sheetData>
